--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
   <si>
     <t>NUMBER</t>
   </si>
@@ -651,6 +651,54 @@
   </si>
   <si>
     <t>0 hours, -15 minutes</t>
+  </si>
+  <si>
+    <t>9:50 PM</t>
+  </si>
+  <si>
+    <t>FR7678</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>(ARN)</t>
+  </si>
+  <si>
+    <t>B38M</t>
+  </si>
+  <si>
+    <t>(9H-VUJ)</t>
+  </si>
+  <si>
+    <t>(D-ACNP)</t>
+  </si>
+  <si>
+    <t>9:53 PM</t>
+  </si>
+  <si>
+    <t>FR7945</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>(LBA)</t>
+  </si>
+  <si>
+    <t>9:40 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -30 minutes</t>
+  </si>
+  <si>
+    <t>10:45 PM</t>
+  </si>
+  <si>
+    <t>10:24 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -21 minutes</t>
   </si>
 </sst>
 </file>
@@ -695,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1955,6 +2003,154 @@
       </c>
       <c r="M34" s="0"/>
     </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="K38" s="0"/>
+      <c r="L38" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="M38" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="293">
   <si>
     <t>NUMBER</t>
   </si>
@@ -699,6 +699,198 @@
   </si>
   <si>
     <t>0 hours, -21 minutes</t>
+  </si>
+  <si>
+    <t>11:00 PM</t>
+  </si>
+  <si>
+    <t>LH1640</t>
+  </si>
+  <si>
+    <t>(D-ACNO)</t>
+  </si>
+  <si>
+    <t>11:50 PM</t>
+  </si>
+  <si>
+    <t>LO3941</t>
+  </si>
+  <si>
+    <t>(SP-LDG)</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>4:11 AM</t>
+  </si>
+  <si>
+    <t>E45070</t>
+  </si>
+  <si>
+    <t>Hurghada</t>
+  </si>
+  <si>
+    <t>(HRG)</t>
+  </si>
+  <si>
+    <t>3:33 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -38 minutes</t>
+  </si>
+  <si>
+    <t>6:33 AM</t>
+  </si>
+  <si>
+    <t>P81988</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>(CGN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SprintAir </t>
+  </si>
+  <si>
+    <t>AT73</t>
+  </si>
+  <si>
+    <t>(SP-SPD)</t>
+  </si>
+  <si>
+    <t>6:07 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -26 minutes</t>
+  </si>
+  <si>
+    <t>9:36 AM</t>
+  </si>
+  <si>
+    <t>BN1571</t>
+  </si>
+  <si>
+    <t>La Roche-sur-Yon</t>
+  </si>
+  <si>
+    <t>(EDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxwing </t>
+  </si>
+  <si>
+    <t>E55P</t>
+  </si>
+  <si>
+    <t>(F-HLRS)</t>
+  </si>
+  <si>
+    <t>9:34 AM</t>
+  </si>
+  <si>
+    <t>10:05 AM</t>
+  </si>
+  <si>
+    <t>LH1388</t>
+  </si>
+  <si>
+    <t>(D-ACNF)</t>
+  </si>
+  <si>
+    <t>10:06 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>FR3593</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>(BGY)</t>
+  </si>
+  <si>
+    <t>9:53 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -22 minutes</t>
+  </si>
+  <si>
+    <t>10:41 AM</t>
+  </si>
+  <si>
+    <t>11:20 AM</t>
+  </si>
+  <si>
+    <t>LO3945</t>
+  </si>
+  <si>
+    <t>(SP-LDF)</t>
+  </si>
+  <si>
+    <t>11:55 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>11:45 AM</t>
+  </si>
+  <si>
+    <t>FR7941</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>(EDI)</t>
+  </si>
+  <si>
+    <t>11:14 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -31 minutes</t>
+  </si>
+  <si>
+    <t>11:50 AM</t>
+  </si>
+  <si>
+    <t>W61926</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>(EIN)</t>
+  </si>
+  <si>
+    <t>(HA-LXB)</t>
+  </si>
+  <si>
+    <t>11:25 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -25 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACNH)</t>
+  </si>
+  <si>
+    <t>12:36 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 16 minutes</t>
   </si>
 </sst>
 </file>
@@ -743,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2151,6 +2343,450 @@
       </c>
       <c r="M38" s="0"/>
     </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="K40" s="0"/>
+      <c r="L40" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="M42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="K44" s="0"/>
+      <c r="L44" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="K45" s="0"/>
+      <c r="L45" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="K46" s="0"/>
+      <c r="L46" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="K47" s="0"/>
+      <c r="L47" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="M47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="K48" s="0"/>
+      <c r="L48" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="M48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="K49" s="0"/>
+      <c r="L49" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="M49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="K50" s="0"/>
+      <c r="L50" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="M50" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="330">
   <si>
     <t>NUMBER</t>
   </si>
@@ -891,6 +891,117 @@
   </si>
   <si>
     <t>0 hours, 16 minutes</t>
+  </si>
+  <si>
+    <t>1:55 PM</t>
+  </si>
+  <si>
+    <t>SK1755</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>(CPH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS </t>
+  </si>
+  <si>
+    <t>(EI-FPV)</t>
+  </si>
+  <si>
+    <t>2:02 PM</t>
+  </si>
+  <si>
+    <t>2:24 PM</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>(SZZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC Aviation </t>
+  </si>
+  <si>
+    <t>PC24</t>
+  </si>
+  <si>
+    <t>(SP-AGA)</t>
+  </si>
+  <si>
+    <t>1:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -34 minutes</t>
+  </si>
+  <si>
+    <t>(PH-EXW)</t>
+  </si>
+  <si>
+    <t>2:30 PM</t>
+  </si>
+  <si>
+    <t>3:30 PM</t>
+  </si>
+  <si>
+    <t>3:17 PM</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>(G-WUKD)</t>
+  </si>
+  <si>
+    <t>3:46 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -14 minutes</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>FR7890</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>(MLA)</t>
+  </si>
+  <si>
+    <t>5:29 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 9 minutes</t>
+  </si>
+  <si>
+    <t>5:40 PM</t>
+  </si>
+  <si>
+    <t>FR7943</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>(MAN)</t>
+  </si>
+  <si>
+    <t>5:25 PM</t>
+  </si>
+  <si>
+    <t>(SP-LDH)</t>
+  </si>
+  <si>
+    <t>5:34 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -16 minutes</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2787,6 +2898,339 @@
       </c>
       <c r="M50" s="0"/>
     </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="K51" s="0"/>
+      <c r="L51" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K52" s="0"/>
+      <c r="L52" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="K53" s="0"/>
+      <c r="L53" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="K54" s="0"/>
+      <c r="L54" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="K55" s="0"/>
+      <c r="L55" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="K56" s="0"/>
+      <c r="L56" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="K57" s="0"/>
+      <c r="L57" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="M57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="K58" s="0"/>
+      <c r="L58" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="K59" s="0"/>
+      <c r="L59" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M59" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="360">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1002,6 +1002,96 @@
   </si>
   <si>
     <t>0 hours, -16 minutes</t>
+  </si>
+  <si>
+    <t>8:33 PM</t>
+  </si>
+  <si>
+    <t>Fuerteventura</t>
+  </si>
+  <si>
+    <t>(FUE)</t>
+  </si>
+  <si>
+    <t>(SP-ENL)</t>
+  </si>
+  <si>
+    <t>9:05 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 32 minutes</t>
+  </si>
+  <si>
+    <t>8:45 PM</t>
+  </si>
+  <si>
+    <t>FR7949</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>(BRS)</t>
+  </si>
+  <si>
+    <t>8:38 PM</t>
+  </si>
+  <si>
+    <t>9:30 PM</t>
+  </si>
+  <si>
+    <t>FR7894</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>(TSF)</t>
+  </si>
+  <si>
+    <t>0 hours, 10 minutes</t>
+  </si>
+  <si>
+    <t>9:35 PM</t>
+  </si>
+  <si>
+    <t>FR8320</t>
+  </si>
+  <si>
+    <t>(EI-EKS)</t>
+  </si>
+  <si>
+    <t>9:26 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -9 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACNT)</t>
+  </si>
+  <si>
+    <t>FR9316</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>(HEL)</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 20 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACKH)</t>
+  </si>
+  <si>
+    <t>10:52 PM</t>
+  </si>
+  <si>
+    <t>11:32 PM</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3231,6 +3321,302 @@
       </c>
       <c r="M59" s="0"/>
     </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="K60" s="0"/>
+      <c r="L60" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="M60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="K61" s="0"/>
+      <c r="L61" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="K62" s="0"/>
+      <c r="L62" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="K63" s="0"/>
+      <c r="L63" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M63" s="0"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="K64" s="0"/>
+      <c r="L64" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K65" s="0"/>
+      <c r="L65" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="K66" s="0"/>
+      <c r="L66" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="K67" s="0"/>
+      <c r="L67" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M67" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="387">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1092,6 +1092,87 @@
   </si>
   <si>
     <t>11:32 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>6:09 AM</t>
+  </si>
+  <si>
+    <t>AT72</t>
+  </si>
+  <si>
+    <t>(SP-SPG)</t>
+  </si>
+  <si>
+    <t>6:14 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>8:05 AM</t>
+  </si>
+  <si>
+    <t>FR4999</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>(CRL)</t>
+  </si>
+  <si>
+    <t>(EI-DPG)</t>
+  </si>
+  <si>
+    <t>8:09 AM</t>
+  </si>
+  <si>
+    <t>10:02 AM</t>
+  </si>
+  <si>
+    <t>(SP-LIB)</t>
+  </si>
+  <si>
+    <t>LO6595</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>(SP-LRD)</t>
+  </si>
+  <si>
+    <t>11:21 AM</t>
+  </si>
+  <si>
+    <t>(D-ACNN)</t>
+  </si>
+  <si>
+    <t>12:12 PM</t>
+  </si>
+  <si>
+    <t>1:45 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIA)</t>
+  </si>
+  <si>
+    <t>(D-ACNJ)</t>
+  </si>
+  <si>
+    <t>3:01 PM</t>
+  </si>
+  <si>
+    <t>Poprad</t>
+  </si>
+  <si>
+    <t>(TAT)</t>
+  </si>
+  <si>
+    <t>2:52 PM</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3617,6 +3698,376 @@
       </c>
       <c r="M67" s="0"/>
     </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="K68" s="0"/>
+      <c r="L68" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M68" s="0"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="K69" s="0"/>
+      <c r="L69" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M69" s="0"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="K70" s="0"/>
+      <c r="L70" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M70" s="0"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="K71" s="0"/>
+      <c r="L71" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M71" s="0"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="K72" s="0"/>
+      <c r="L72" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M72" s="0"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K73" s="0"/>
+      <c r="L73" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="K74" s="0"/>
+      <c r="L74" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M74" s="0"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K75" s="0"/>
+      <c r="L75" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="K76" s="0"/>
+      <c r="L76" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M76" s="0"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="K77" s="0"/>
+      <c r="L77" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M77" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="458">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1173,6 +1173,219 @@
   </si>
   <si>
     <t>2:52 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>(9H-QCO)</t>
+  </si>
+  <si>
+    <t>8:15 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>9:50 AM</t>
+  </si>
+  <si>
+    <t>(EI-DHP)</t>
+  </si>
+  <si>
+    <t>9:31 AM</t>
+  </si>
+  <si>
+    <t>11:05 AM</t>
+  </si>
+  <si>
+    <t>5Y529</t>
+  </si>
+  <si>
+    <t>(HHN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Air </t>
+  </si>
+  <si>
+    <t>B744</t>
+  </si>
+  <si>
+    <t>(N480MC)</t>
+  </si>
+  <si>
+    <t>12:52 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 47 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACNI)</t>
+  </si>
+  <si>
+    <t>12:13 PM</t>
+  </si>
+  <si>
+    <t>12:25 PM</t>
+  </si>
+  <si>
+    <t>LO6532</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>(POP)</t>
+  </si>
+  <si>
+    <t>12:42 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RZK)</t>
+  </si>
+  <si>
+    <t>1:28 PM</t>
+  </si>
+  <si>
+    <t>(EI-FPU)</t>
+  </si>
+  <si>
+    <t>1:38 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXX)</t>
+  </si>
+  <si>
+    <t>2:20 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNE)</t>
+  </si>
+  <si>
+    <t>2:48 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>4:08 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIL)</t>
+  </si>
+  <si>
+    <t>5:36 PM</t>
+  </si>
+  <si>
+    <t>5:58 PM</t>
+  </si>
+  <si>
+    <t>SAR900</t>
+  </si>
+  <si>
+    <t>(SP-SPA)</t>
+  </si>
+  <si>
+    <t>6:19 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 21 minutes</t>
+  </si>
+  <si>
+    <t>8:15 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBY)</t>
+  </si>
+  <si>
+    <t>8:16 PM</t>
+  </si>
+  <si>
+    <t>(EI-ENO)</t>
+  </si>
+  <si>
+    <t>9:55 PM</t>
+  </si>
+  <si>
+    <t>9:59 PM</t>
+  </si>
+  <si>
+    <t>11:20 PM</t>
+  </si>
+  <si>
+    <t>11:16 PM</t>
+  </si>
+  <si>
+    <t>11:36 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>6:30 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 23 minutes</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>11:49 AM</t>
+  </si>
+  <si>
+    <t>E41198</t>
+  </si>
+  <si>
+    <t>11:42 AM</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXT)</t>
+  </si>
+  <si>
+    <t>2:46 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>3:12 PM</t>
+  </si>
+  <si>
+    <t>LO6534</t>
+  </si>
+  <si>
+    <t>Cancun</t>
+  </si>
+  <si>
+    <t>(CUN)</t>
+  </si>
+  <si>
+    <t>3:50 PM</t>
+  </si>
+  <si>
+    <t>(G-WUKF)</t>
+  </si>
+  <si>
+    <t>3:13 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -37 minutes</t>
+  </si>
+  <si>
+    <t>(MXP)</t>
+  </si>
+  <si>
+    <t>5:35 PM</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4068,6 +4281,1079 @@
       </c>
       <c r="M77" s="0"/>
     </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="K78" s="0"/>
+      <c r="L78" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="K79" s="0"/>
+      <c r="L79" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="K80" s="0"/>
+      <c r="L80" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="M80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="K81" s="0"/>
+      <c r="L81" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M81" s="0"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="K82" s="0"/>
+      <c r="L82" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="M82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="K83" s="0"/>
+      <c r="L83" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M83" s="0"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="K84" s="0"/>
+      <c r="L84" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M84" s="0"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K85" s="0"/>
+      <c r="L85" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M85" s="0"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="K86" s="0"/>
+      <c r="L86" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="M86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="K87" s="0"/>
+      <c r="L87" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="M87" s="0"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="K88" s="0"/>
+      <c r="L88" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="K89" s="0"/>
+      <c r="L89" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M89" s="0"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="K90" s="0"/>
+      <c r="L90" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M90" s="0"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="K91" s="0"/>
+      <c r="L91" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="M91" s="0"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="K92" s="0"/>
+      <c r="L92" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="K93" s="0"/>
+      <c r="L93" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M93" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="K94" s="0"/>
+      <c r="L94" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M94" s="0"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="K95" s="0"/>
+      <c r="L95" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M95" s="0"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="K96" s="0"/>
+      <c r="L96" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="K97" s="0"/>
+      <c r="L97" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M97" s="0"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="K98" s="0"/>
+      <c r="L98" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="K99" s="0"/>
+      <c r="L99" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M99" s="0"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="K100" s="0"/>
+      <c r="L100" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M100" s="0"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K101" s="0"/>
+      <c r="L101" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M101" s="0"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K102" s="0"/>
+      <c r="L102" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="K103" s="0"/>
+      <c r="L103" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M103" s="0"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K104" s="0"/>
+      <c r="L104" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="K105" s="0"/>
+      <c r="L105" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="M105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="K106" s="0"/>
+      <c r="L106" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M106" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="475">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1386,6 +1386,57 @@
   </si>
   <si>
     <t>5:35 PM</t>
+  </si>
+  <si>
+    <t>7:42 PM</t>
+  </si>
+  <si>
+    <t>FT1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlyEgypt </t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>(SU-TMM)</t>
+  </si>
+  <si>
+    <t>7:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>8:44 PM</t>
+  </si>
+  <si>
+    <t>(EI-GSK)</t>
+  </si>
+  <si>
+    <t>(SP-RZL)</t>
+  </si>
+  <si>
+    <t>9:44 PM</t>
+  </si>
+  <si>
+    <t>10:02 PM</t>
+  </si>
+  <si>
+    <t>(D-ACKF)</t>
+  </si>
+  <si>
+    <t>10:36 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -24 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LIC)</t>
+  </si>
+  <si>
+    <t>11:39 PM</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5354,6 +5405,265 @@
       </c>
       <c r="M106" s="0"/>
     </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="I107" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="J107" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="K107" s="0"/>
+      <c r="L107" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="M107" s="0"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J108" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="K108" s="0"/>
+      <c r="L108" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="J109" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="K109" s="0"/>
+      <c r="L109" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M109" s="0"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I110" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="J110" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="K110" s="0"/>
+      <c r="L110" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="J111" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K111" s="0"/>
+      <c r="L111" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M111" s="0"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="J112" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="K112" s="0"/>
+      <c r="L112" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I113" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="J113" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="K113" s="0"/>
+      <c r="L113" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M113" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="501">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1437,6 +1437,84 @@
   </si>
   <si>
     <t>11:39 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>1:48 AM</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>(TFS)</t>
+  </si>
+  <si>
+    <t>1:30 AM</t>
+  </si>
+  <si>
+    <t>6:03 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 6 minutes</t>
+  </si>
+  <si>
+    <t>11:03 AM</t>
+  </si>
+  <si>
+    <t>LPR42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish Medical Air Rescue </t>
+  </si>
+  <si>
+    <t>LJ75</t>
+  </si>
+  <si>
+    <t>(SP-MXS)</t>
+  </si>
+  <si>
+    <t>10:42 AM</t>
+  </si>
+  <si>
+    <t>11:40 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYE)</t>
+  </si>
+  <si>
+    <t>11:26 AM</t>
+  </si>
+  <si>
+    <t>12:05 PM</t>
+  </si>
+  <si>
+    <t>11:38 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -27 minutes</t>
+  </si>
+  <si>
+    <t>12:14 PM</t>
+  </si>
+  <si>
+    <t>W61922</t>
+  </si>
+  <si>
+    <t>(HA-LWV)</t>
+  </si>
+  <si>
+    <t>12:28 PM</t>
+  </si>
+  <si>
+    <t>1:47 PM</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>2:23 PM</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5664,6 +5742,487 @@
       </c>
       <c r="M113" s="0"/>
     </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J114" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="K114" s="0"/>
+      <c r="L114" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I115" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J115" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="K115" s="0"/>
+      <c r="L115" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="M115" s="0"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J116" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="K116" s="0"/>
+      <c r="L116" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="I117" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="J117" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="K117" s="0"/>
+      <c r="L117" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="M117" s="0"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J118" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="K118" s="0"/>
+      <c r="L118" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M118" s="0"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J119" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="K119" s="0"/>
+      <c r="L119" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M119" s="0"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I120" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="J120" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K120" s="0"/>
+      <c r="L120" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M120" s="0"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="K121" s="0"/>
+      <c r="L121" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M121" s="0"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J122" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="K122" s="0"/>
+      <c r="L122" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M122" s="0"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I123" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="J123" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="K123" s="0"/>
+      <c r="L123" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M123" s="0"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I124" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="J124" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="K124" s="0"/>
+      <c r="L124" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M124" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I125" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="J125" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="K125" s="0"/>
+      <c r="L125" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M125" s="0"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I126" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="J126" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="K126" s="0"/>
+      <c r="L126" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M126" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="522">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1515,6 +1515,69 @@
   </si>
   <si>
     <t>2:23 PM</t>
+  </si>
+  <si>
+    <t>3:40 PM</t>
+  </si>
+  <si>
+    <t>3:24 PM</t>
+  </si>
+  <si>
+    <t>4:45 PM</t>
+  </si>
+  <si>
+    <t>4:40 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>4:31 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -29 minutes</t>
+  </si>
+  <si>
+    <t>8:55 PM</t>
+  </si>
+  <si>
+    <t>E47014</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>(DWC)</t>
+  </si>
+  <si>
+    <t>9:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 46 minutes</t>
+  </si>
+  <si>
+    <t>8:49 PM</t>
+  </si>
+  <si>
+    <t>9:20 PM</t>
+  </si>
+  <si>
+    <t>9:37 PM</t>
+  </si>
+  <si>
+    <t>(EI-HEY)</t>
+  </si>
+  <si>
+    <t>0 hours, 7 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta Air </t>
+  </si>
+  <si>
+    <t>(9H-VUB)</t>
+  </si>
+  <si>
+    <t>9:31 PM</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6223,6 +6286,413 @@
       </c>
       <c r="M126" s="0"/>
     </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="K127" s="0"/>
+      <c r="L127" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M127" s="0"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="K128" s="0"/>
+      <c r="L128" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M128" s="0"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="K129" s="0"/>
+      <c r="L129" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M129" s="0"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="K130" s="0"/>
+      <c r="L130" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="M130" s="0"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I131" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="K131" s="0"/>
+      <c r="L131" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M131" s="0"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H132" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="K132" s="0"/>
+      <c r="L132" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="M132" s="0"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="K133" s="0"/>
+      <c r="L133" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M133" s="0"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I134" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="K134" s="0"/>
+      <c r="L134" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="M134" s="0"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I135" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="J135" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K135" s="0"/>
+      <c r="L135" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M135" s="0"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="H136" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="K136" s="0"/>
+      <c r="L136" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M136" s="0"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="K137" s="0"/>
+      <c r="L137" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M137" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="543">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1578,6 +1578,69 @@
   </si>
   <si>
     <t>9:31 PM</t>
+  </si>
+  <si>
+    <t>11:52 PM</t>
+  </si>
+  <si>
+    <t>11:59 PM</t>
+  </si>
+  <si>
+    <t>12:02 AM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>10:47 AM</t>
+  </si>
+  <si>
+    <t>(D-ACND)</t>
+  </si>
+  <si>
+    <t>12:17 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -23 minutes</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>1:24 PM</t>
+  </si>
+  <si>
+    <t>12:55 PM</t>
+  </si>
+  <si>
+    <t>(EI-DYP)</t>
+  </si>
+  <si>
+    <t>1:51 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>1:59 PM</t>
+  </si>
+  <si>
+    <t>W66995</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>(VRN)</t>
+  </si>
+  <si>
+    <t>(HA-LXV)</t>
+  </si>
+  <si>
+    <t>2:22 PM</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6693,6 +6756,487 @@
       </c>
       <c r="M137" s="0"/>
     </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I138" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="J138" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="K138" s="0"/>
+      <c r="L138" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="M138" s="0"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J139" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="K139" s="0"/>
+      <c r="L139" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="M139" s="0"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H140" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J140" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="K140" s="0"/>
+      <c r="L140" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M140" s="0"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="K141" s="0"/>
+      <c r="L141" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M141" s="0"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J142" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K142" s="0"/>
+      <c r="L142" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M142" s="0"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H143" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J143" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="K143" s="0"/>
+      <c r="L143" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M143" s="0"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G144" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H144" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J144" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="K144" s="0"/>
+      <c r="L144" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="M144" s="0"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K145" s="0"/>
+      <c r="L145" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M145" s="0"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J146" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="K146" s="0"/>
+      <c r="L146" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="M146" s="0"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="H147" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I147" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="J147" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M147" s="0"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="G148" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I148" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="J148" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M148" s="0"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J149" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="K149" s="0"/>
+      <c r="L149" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="M149" s="0"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J150" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="K150" s="0"/>
+      <c r="L150" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M150" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="553">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1641,6 +1641,36 @@
   </si>
   <si>
     <t>2:22 PM</t>
+  </si>
+  <si>
+    <t>6:54 PM</t>
+  </si>
+  <si>
+    <t>(EI-HEV)</t>
+  </si>
+  <si>
+    <t>9:27 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKZ)</t>
+  </si>
+  <si>
+    <t>9:56 PM</t>
+  </si>
+  <si>
+    <t>10:21 PM</t>
+  </si>
+  <si>
+    <t>11:24 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>10:07 PM</t>
+  </si>
+  <si>
+    <t>11:19 PM</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7237,6 +7267,302 @@
       </c>
       <c r="M150" s="0"/>
     </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H151" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J151" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="K151" s="0"/>
+      <c r="L151" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M151" s="0"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J152" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="K152" s="0"/>
+      <c r="L152" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="M152" s="0"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I153" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="J153" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="K153" s="0"/>
+      <c r="L153" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M153" s="0"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="J154" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K154" s="0"/>
+      <c r="L154" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M154" s="0"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J155" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="K155" s="0"/>
+      <c r="L155" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M155" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J156" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="K156" s="0"/>
+      <c r="L156" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="M156" s="0"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H157" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I157" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="J157" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="K157" s="0"/>
+      <c r="L157" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M157" s="0"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="K158" s="0"/>
+      <c r="L158" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="M158" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="567">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1671,6 +1671,48 @@
   </si>
   <si>
     <t>11:19 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>2:10 AM</t>
+  </si>
+  <si>
+    <t>2:06 AM</t>
+  </si>
+  <si>
+    <t>10:45 AM</t>
+  </si>
+  <si>
+    <t>12:04 PM</t>
+  </si>
+  <si>
+    <t>1:06 PM</t>
+  </si>
+  <si>
+    <t>2:13 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXR)</t>
+  </si>
+  <si>
+    <t>2:08 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNW)</t>
+  </si>
+  <si>
+    <t>2:38 PM</t>
+  </si>
+  <si>
+    <t>(G-WUKI)</t>
+  </si>
+  <si>
+    <t>3:36 PM</t>
+  </si>
+  <si>
+    <t>4:12 PM</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7563,6 +7605,339 @@
       </c>
       <c r="M158" s="0"/>
     </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H159" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J159" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="K159" s="0"/>
+      <c r="L159" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M159" s="0"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="K160" s="0"/>
+      <c r="L160" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M160" s="0"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H161" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I161" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="J161" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="K161" s="0"/>
+      <c r="L161" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M161" s="0"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J162" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="K162" s="0"/>
+      <c r="L162" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M162" s="0"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I163" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J163" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="K163" s="0"/>
+      <c r="L163" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M163" s="0"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H164" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I164" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="J164" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K164" s="0"/>
+      <c r="L164" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M164" s="0"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H165" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I165" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="J165" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K165" s="0"/>
+      <c r="L165" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M165" s="0"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H166" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I166" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J166" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="K166" s="0"/>
+      <c r="L166" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M166" s="0"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G167" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="K167" s="0"/>
+      <c r="L167" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M167" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="568">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1713,6 +1713,9 @@
   </si>
   <si>
     <t>4:12 PM</t>
+  </si>
+  <si>
+    <t>(SP-LID)</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7938,6 +7941,43 @@
       </c>
       <c r="M167" s="0"/>
     </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F168" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G168" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I168" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J168" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="K168" s="0"/>
+      <c r="L168" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M168" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="587">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1716,6 +1716,63 @@
   </si>
   <si>
     <t>(SP-LID)</t>
+  </si>
+  <si>
+    <t>6:07 PM</t>
+  </si>
+  <si>
+    <t>5Y587</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>(PSM)</t>
+  </si>
+  <si>
+    <t>(N482MC)</t>
+  </si>
+  <si>
+    <t>7:27 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 20 minutes</t>
+  </si>
+  <si>
+    <t>7:45 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUN)</t>
+  </si>
+  <si>
+    <t>9:38 PM</t>
+  </si>
+  <si>
+    <t>10:01 PM</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>(GOT)</t>
+  </si>
+  <si>
+    <t>0 hours, 31 minutes</t>
+  </si>
+  <si>
+    <t>10:55 PM</t>
+  </si>
+  <si>
+    <t>10:43 PM</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>(SP-LMH)</t>
+  </si>
+  <si>
+    <t>11:47 PM</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7978,6 +8035,339 @@
       </c>
       <c r="M168" s="0"/>
     </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="F169" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G169" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="H169" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="I169" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="J169" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="K169" s="0"/>
+      <c r="L169" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="M169" s="0"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F170" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G170" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J170" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="K170" s="0"/>
+      <c r="L170" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M170" s="0"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F171" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G171" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I171" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="J171" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="K171" s="0"/>
+      <c r="L171" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M171" s="0"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="F172" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="G172" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I172" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J172" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="K172" s="0"/>
+      <c r="L172" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M172" s="0"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F173" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G173" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H173" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I173" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="J173" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="K173" s="0"/>
+      <c r="L173" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M173" s="0"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F174" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G174" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="K174" s="0"/>
+      <c r="L174" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M174" s="0"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J175" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="K175" s="0"/>
+      <c r="L175" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M175" s="0"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F176" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G176" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H176" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I176" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J176" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="K176" s="0"/>
+      <c r="L176" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M176" s="0"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F177" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G177" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="I177" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="J177" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="K177" s="0"/>
+      <c r="L177" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M177" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="606">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1773,6 +1773,63 @@
   </si>
   <si>
     <t>11:47 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>2:52 AM</t>
+  </si>
+  <si>
+    <t>Kaunas</t>
+  </si>
+  <si>
+    <t>(KUN)</t>
+  </si>
+  <si>
+    <t>5:40 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 48 minutes</t>
+  </si>
+  <si>
+    <t>4:20 AM</t>
+  </si>
+  <si>
+    <t>4:16 AM</t>
+  </si>
+  <si>
+    <t>6:18 AM</t>
+  </si>
+  <si>
+    <t>AT75</t>
+  </si>
+  <si>
+    <t>(SP-SPL)</t>
+  </si>
+  <si>
+    <t>6:05 AM</t>
+  </si>
+  <si>
+    <t>9:25 AM</t>
+  </si>
+  <si>
+    <t>Ostrava</t>
+  </si>
+  <si>
+    <t>(OSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Aviation </t>
+  </si>
+  <si>
+    <t>(OK-STS)</t>
+  </si>
+  <si>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8368,6 +8425,228 @@
       </c>
       <c r="M177" s="0"/>
     </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="F178" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="G178" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="H178" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="I178" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="J178" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="K178" s="0"/>
+      <c r="L178" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="M178" s="0"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F179" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G179" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H179" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J179" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="K179" s="0"/>
+      <c r="L179" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M179" s="0"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F180" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G180" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H180" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="I180" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="J180" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="K180" s="0"/>
+      <c r="L180" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M180" s="0"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="G181" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="H181" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="I181" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="J181" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="K181" s="0"/>
+      <c r="L181" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M181" s="0"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G182" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H182" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I182" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J182" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="K182" s="0"/>
+      <c r="L182" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="M182" s="0"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G183" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I183" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J183" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="K183" s="0"/>
+      <c r="L183" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M183" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="679">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1830,6 +1830,225 @@
   </si>
   <si>
     <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>(EI-FPE)</t>
+  </si>
+  <si>
+    <t>3:07 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 52 minutes</t>
+  </si>
+  <si>
+    <t>2:34 PM</t>
+  </si>
+  <si>
+    <t>3:18 PM</t>
+  </si>
+  <si>
+    <t>5:18 PM</t>
+  </si>
+  <si>
+    <t>5:38 PM</t>
+  </si>
+  <si>
+    <t>8:14 PM</t>
+  </si>
+  <si>
+    <t>8:32 PM</t>
+  </si>
+  <si>
+    <t>9:06 PM</t>
+  </si>
+  <si>
+    <t>(EI-DWA)</t>
+  </si>
+  <si>
+    <t>9:52 PM</t>
+  </si>
+  <si>
+    <t>9:58 PM</t>
+  </si>
+  <si>
+    <t>10:06 PM</t>
+  </si>
+  <si>
+    <t>11:30 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>6:19 AM</t>
+  </si>
+  <si>
+    <t>(SP-SPH)</t>
+  </si>
+  <si>
+    <t>0 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DPK)</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>10:04 AM</t>
+  </si>
+  <si>
+    <t>10:56 AM</t>
+  </si>
+  <si>
+    <t>11:23 AM</t>
+  </si>
+  <si>
+    <t>(SP-LRG)</t>
+  </si>
+  <si>
+    <t>12:09 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>E195</t>
+  </si>
+  <si>
+    <t>(SP-LNG)</t>
+  </si>
+  <si>
+    <t>(D-ACKI)</t>
+  </si>
+  <si>
+    <t>2:43 PM</t>
+  </si>
+  <si>
+    <t>4:10 PM</t>
+  </si>
+  <si>
+    <t>Varna</t>
+  </si>
+  <si>
+    <t>(VAR)</t>
+  </si>
+  <si>
+    <t>(SP-ESK)</t>
+  </si>
+  <si>
+    <t>4:16 PM</t>
+  </si>
+  <si>
+    <t>5:45 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMG)</t>
+  </si>
+  <si>
+    <t>6:08 PM</t>
+  </si>
+  <si>
+    <t>SAR911</t>
+  </si>
+  <si>
+    <t>7:04 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 56 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EBR)</t>
+  </si>
+  <si>
+    <t>8:50 PM</t>
+  </si>
+  <si>
+    <t>11:14 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Grzeski Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNB)</t>
+  </si>
+  <si>
+    <t>11:40 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>6:23 AM</t>
+  </si>
+  <si>
+    <t>(9H-QEA)</t>
+  </si>
+  <si>
+    <t>7:55 AM</t>
+  </si>
+  <si>
+    <t>(EI-DCJ)</t>
+  </si>
+  <si>
+    <t>9:46 AM</t>
+  </si>
+  <si>
+    <t>12:24 PM</t>
+  </si>
+  <si>
+    <t>12:03 PM</t>
+  </si>
+  <si>
+    <t>1:31 PM</t>
+  </si>
+  <si>
+    <t>(EI-GEC)</t>
+  </si>
+  <si>
+    <t>2:18 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXJ)</t>
+  </si>
+  <si>
+    <t>2:27 PM</t>
+  </si>
+  <si>
+    <t>(G-WUKC)</t>
+  </si>
+  <si>
+    <t>4:37 PM</t>
+  </si>
+  <si>
+    <t>4:33 PM</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>(AAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexjet Operations Malta </t>
+  </si>
+  <si>
+    <t>E550</t>
+  </si>
+  <si>
+    <t>(9H-JFX)</t>
+  </si>
+  <si>
+    <t>5:26 PM</t>
+  </si>
+  <si>
+    <t>(EI-EGB)</t>
+  </si>
+  <si>
+    <t>8:02 PM</t>
+  </si>
+  <si>
+    <t>9:54 PM</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +2093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8647,6 +8866,1708 @@
       </c>
       <c r="M183" s="0"/>
     </row>
+    <row r="184">
+      <c r="A184" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G184" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H184" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I184" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="J184" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K184" s="0"/>
+      <c r="L184" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M184" s="0"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F185" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G185" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H185" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I185" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J185" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="K185" s="0"/>
+      <c r="L185" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="M185" s="0"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F186" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G186" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H186" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I186" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="J186" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="K186" s="0"/>
+      <c r="L186" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M186" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F187" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G187" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I187" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J187" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K187" s="0"/>
+      <c r="L187" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M187" s="0"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F188" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I188" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="J188" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="K188" s="0"/>
+      <c r="L188" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M188" s="0"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F189" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G189" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I189" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J189" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="K189" s="0"/>
+      <c r="L189" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M189" s="0"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F190" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G190" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J190" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="K190" s="0"/>
+      <c r="L190" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M190" s="0"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F191" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G191" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="H191" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I191" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="J191" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="K191" s="0"/>
+      <c r="L191" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M191" s="0"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F192" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G192" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H192" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J192" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="K192" s="0"/>
+      <c r="L192" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M192" s="0"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E193" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F193" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G193" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I193" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J193" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="K193" s="0"/>
+      <c r="L193" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M193" s="0"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E194" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F194" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G194" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J194" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="K194" s="0"/>
+      <c r="L194" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M194" s="0"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F195" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G195" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I195" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="J195" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="K195" s="0"/>
+      <c r="L195" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="M195" s="0"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E196" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F196" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G196" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H196" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I196" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="J196" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="K196" s="0"/>
+      <c r="L196" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M196" s="0"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E197" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F197" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G197" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I197" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J197" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="K197" s="0"/>
+      <c r="L197" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M197" s="0"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F198" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G198" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I198" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J198" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="K198" s="0"/>
+      <c r="L198" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M198" s="0"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F199" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G199" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H199" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I199" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J199" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="K199" s="0"/>
+      <c r="L199" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="M199" s="0"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="F200" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G200" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H200" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I200" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="J200" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="K200" s="0"/>
+      <c r="L200" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M200" s="0"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F201" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G201" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I201" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J201" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="K201" s="0"/>
+      <c r="L201" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M201" s="0"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F202" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G202" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H202" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I202" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="J202" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="K202" s="0"/>
+      <c r="L202" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M202" s="0"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F203" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G203" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H203" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I203" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="J203" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="K203" s="0"/>
+      <c r="L203" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M203" s="0"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G204" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H204" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I204" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="J204" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="K204" s="0"/>
+      <c r="L204" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M204" s="0"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F205" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G205" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I205" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J205" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="K205" s="0"/>
+      <c r="L205" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="M205" s="0"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F206" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G206" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H206" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I206" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="J206" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K206" s="0"/>
+      <c r="L206" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M206" s="0"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F207" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G207" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H207" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I207" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="J207" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="K207" s="0"/>
+      <c r="L207" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M207" s="0"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="F208" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="G208" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H208" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I208" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="J208" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="K208" s="0"/>
+      <c r="L208" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="M208" s="0"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F209" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G209" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H209" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="I209" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="J209" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="K209" s="0"/>
+      <c r="L209" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M209" s="0"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F210" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G210" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H210" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I210" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J210" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="K210" s="0"/>
+      <c r="L210" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="M210" s="0"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G211" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I211" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="J211" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="K211" s="0"/>
+      <c r="L211" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M211" s="0"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F212" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G212" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I212" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J212" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="K212" s="0"/>
+      <c r="L212" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M212" s="0"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F213" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G213" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="H213" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I213" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="J213" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="K213" s="0"/>
+      <c r="L213" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M213" s="0"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E214" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F214" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G214" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H214" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I214" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J214" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="K214" s="0"/>
+      <c r="L214" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M214" s="0"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="0">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E215" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F215" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G215" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I215" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="J215" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="K215" s="0"/>
+      <c r="L215" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M215" s="0"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F216" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G216" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I216" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="J216" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="K216" s="0"/>
+      <c r="L216" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M216" s="0"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E217" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F217" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G217" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H217" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I217" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J217" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K217" s="0"/>
+      <c r="L217" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M217" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E218" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F218" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="G218" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I218" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="J218" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="K218" s="0"/>
+      <c r="L218" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M218" s="0"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="0">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E219" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F219" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G219" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I219" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="J219" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="K219" s="0"/>
+      <c r="L219" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M219" s="0"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E220" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F220" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G220" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H220" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I220" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="J220" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="K220" s="0"/>
+      <c r="L220" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M220" s="0"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E221" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F221" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G221" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H221" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I221" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J221" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K221" s="0"/>
+      <c r="L221" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M221" s="0"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E222" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F222" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G222" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H222" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I222" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="J222" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="K222" s="0"/>
+      <c r="L222" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M222" s="0"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E223" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F223" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G223" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H223" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I223" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="J223" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K223" s="0"/>
+      <c r="L223" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M223" s="0"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E224" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F224" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G224" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H224" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I224" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="J224" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K224" s="0"/>
+      <c r="L224" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M224" s="0"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E225" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F225" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G225" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I225" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J225" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="K225" s="0"/>
+      <c r="L225" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M225" s="0"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E226" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="F226" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="G226" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="H226" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="I226" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="J226" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="K226" s="0"/>
+      <c r="L226" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M226" s="0"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="0">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E227" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F227" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G227" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H227" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I227" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J227" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="K227" s="0"/>
+      <c r="L227" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="M227" s="0"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E228" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F228" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G228" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I228" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="J228" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="K228" s="0"/>
+      <c r="L228" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M228" s="0"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E229" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F229" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G229" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H229" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I229" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J229" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="K229" s="0"/>
+      <c r="L229" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M229" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="731">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2049,6 +2049,162 @@
   </si>
   <si>
     <t>9:54 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t>6:15 AM</t>
+  </si>
+  <si>
+    <t>10:07 AM</t>
+  </si>
+  <si>
+    <t>11:37 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYI)</t>
+  </si>
+  <si>
+    <t>2:16 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RKB)</t>
+  </si>
+  <si>
+    <t>11:39 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RSS)</t>
+  </si>
+  <si>
+    <t>11:57 AM</t>
+  </si>
+  <si>
+    <t>(HA-LWS)</t>
+  </si>
+  <si>
+    <t>12:23 PM</t>
+  </si>
+  <si>
+    <t>(EI-FPS)</t>
+  </si>
+  <si>
+    <t>1:49 PM</t>
+  </si>
+  <si>
+    <t>2:04 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXP)</t>
+  </si>
+  <si>
+    <t>2:29 PM</t>
+  </si>
+  <si>
+    <t>4:09 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 29 minutes</t>
+  </si>
+  <si>
+    <t>4:42 PM</t>
+  </si>
+  <si>
+    <t>(SP-LWA)</t>
+  </si>
+  <si>
+    <t>7:35 PM</t>
+  </si>
+  <si>
+    <t>7:36 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>0 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>9:48 PM</t>
+  </si>
+  <si>
+    <t>(EI-HGV)</t>
+  </si>
+  <si>
+    <t>1 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>(9H-VUS)</t>
+  </si>
+  <si>
+    <t>9:29 PM</t>
+  </si>
+  <si>
+    <t>12:05 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 50 minutes</t>
+  </si>
+  <si>
+    <t>10:56 PM</t>
+  </si>
+  <si>
+    <t>11:11 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIN)</t>
+  </si>
+  <si>
+    <t>11:34 PM</t>
+  </si>
+  <si>
+    <t>12:09 AM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>11:18 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>1:16 PM</t>
+  </si>
+  <si>
+    <t>Diverted to SZZ</t>
+  </si>
+  <si>
+    <t>12:49 PM</t>
+  </si>
+  <si>
+    <t>1:56 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 7 minutes</t>
+  </si>
+  <si>
+    <t>1:18 PM</t>
+  </si>
+  <si>
+    <t>1:46 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 53 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EFX)</t>
+  </si>
+  <si>
+    <t>(HA-LXR)</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10568,6 +10724,1336 @@
       </c>
       <c r="M229" s="0"/>
     </row>
+    <row r="230">
+      <c r="A230" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E230" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F230" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G230" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H230" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="I230" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="J230" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="K230" s="0"/>
+      <c r="L230" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M230" s="0"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E231" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F231" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G231" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H231" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I231" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J231" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="K231" s="0"/>
+      <c r="L231" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="M231" s="0"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="E232" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F232" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I232" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J232" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="K232" s="0"/>
+      <c r="L232" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="M232" s="0"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E233" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F233" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G233" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H233" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I233" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="J233" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="K233" s="0"/>
+      <c r="L233" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="M233" s="0"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E234" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F234" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G234" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I234" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J234" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K234" s="0"/>
+      <c r="L234" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="M234" s="0"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E235" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F235" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G235" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H235" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I235" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="J235" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K235" s="0"/>
+      <c r="L235" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M235" s="0"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E236" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F236" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G236" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H236" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I236" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="J236" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K236" s="0"/>
+      <c r="L236" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M236" s="0"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E237" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F237" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G237" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H237" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I237" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="J237" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="K237" s="0"/>
+      <c r="L237" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M237" s="0"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E238" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F238" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G238" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H238" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I238" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="J238" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="K238" s="0"/>
+      <c r="L238" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M238" s="0"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E239" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F239" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G239" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I239" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J239" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="K239" s="0"/>
+      <c r="L239" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M239" s="0"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E240" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F240" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G240" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H240" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I240" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="J240" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="K240" s="0"/>
+      <c r="L240" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M240" s="0"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E241" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F241" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G241" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H241" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I241" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J241" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="K241" s="0"/>
+      <c r="L241" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="M241" s="0"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E242" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F242" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G242" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H242" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I242" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J242" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K242" s="0"/>
+      <c r="L242" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M242" s="0"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E243" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F243" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G243" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H243" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I243" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="J243" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="K243" s="0"/>
+      <c r="L243" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M243" s="0"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E244" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F244" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G244" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I244" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J244" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="K244" s="0"/>
+      <c r="L244" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M244" s="0"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E245" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F245" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G245" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H245" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I245" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="J245" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="K245" s="0"/>
+      <c r="L245" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M245" s="0"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="E246" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F246" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G246" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H246" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I246" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J246" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="K246" s="0"/>
+      <c r="L246" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M246" s="0"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E247" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F247" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G247" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H247" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I247" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J247" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K247" s="0"/>
+      <c r="L247" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="M247" s="0"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n" s="0">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="E248" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="F248" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="G248" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H248" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I248" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J248" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="K248" s="0"/>
+      <c r="L248" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="M248" s="0"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="0">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E249" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F249" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G249" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I249" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J249" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="K249" s="0"/>
+      <c r="L249" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="M249" s="0"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E250" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F250" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H250" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I250" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="J250" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K250" s="0"/>
+      <c r="L250" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="M250" s="0"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E251" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F251" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G251" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H251" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I251" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="J251" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="K251" s="0"/>
+      <c r="L251" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M251" s="0"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E252" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F252" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G252" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H252" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I252" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="J252" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="K252" s="0"/>
+      <c r="L252" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="M252" s="0"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E253" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F253" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G253" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I253" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="J253" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="K253" s="0"/>
+      <c r="L253" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M253" s="0"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E254" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F254" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G254" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H254" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I254" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="J254" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="K254" s="0"/>
+      <c r="L254" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M254" s="0"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E255" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F255" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G255" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H255" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I255" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="J255" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="K255" s="0"/>
+      <c r="L255" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M255" s="0"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E256" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F256" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G256" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I256" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J256" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="K256" s="0"/>
+      <c r="L256" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M256" s="0"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E257" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F257" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G257" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H257" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I257" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J257" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="K257" s="0"/>
+      <c r="L257" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="M257" s="0"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E258" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F258" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G258" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H258" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I258" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="J258" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="K258" s="0"/>
+      <c r="L258" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="M258" s="0"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="E259" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="F259" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G259" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H259" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="I259" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="J259" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K259" s="0"/>
+      <c r="L259" s="0"/>
+      <c r="M259" s="0"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E260" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F260" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G260" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H260" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I260" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J260" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="K260" s="0"/>
+      <c r="L260" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="M260" s="0"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E261" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F261" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G261" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H261" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I261" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J261" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="K261" s="0"/>
+      <c r="L261" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="M261" s="0"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F262" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G262" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H262" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I262" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J262" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="K262" s="0"/>
+      <c r="L262" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="M262" s="0"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E263" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F263" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G263" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H263" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I263" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J263" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="K263" s="0"/>
+      <c r="L263" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="M263" s="0"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E264" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="F264" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G264" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H264" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I264" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J264" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="K264" s="0"/>
+      <c r="L264" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="M264" s="0"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="E265" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="F265" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="G265" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H265" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I265" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J265" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="K265" s="0"/>
+      <c r="L265" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M265" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="838">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2051,160 +2051,481 @@
     <t>9:54 PM</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t>6:15 AM</t>
-  </si>
-  <si>
-    <t>10:07 AM</t>
-  </si>
-  <si>
-    <t>11:37 AM</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>(SP-RSS)</t>
+  </si>
+  <si>
+    <t>1:42 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIN)</t>
+  </si>
+  <si>
+    <t>2:00 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXK)</t>
+  </si>
+  <si>
+    <t>2:37 PM</t>
+  </si>
+  <si>
+    <t>(SP-RST)</t>
+  </si>
+  <si>
+    <t>3:19 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 44 minutes</t>
+  </si>
+  <si>
+    <t>2:57 PM</t>
+  </si>
+  <si>
+    <t>4:55 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>5:52 PM</t>
+  </si>
+  <si>
+    <t>7:38 PM</t>
+  </si>
+  <si>
+    <t>7:49 PM</t>
+  </si>
+  <si>
+    <t>9:22 PM</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>(PRG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK Aviation Group </t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>(OK-CTP)</t>
+  </si>
+  <si>
+    <t>(9H-VVC)</t>
+  </si>
+  <si>
+    <t>9:28 PM</t>
+  </si>
+  <si>
+    <t>10:11 PM</t>
+  </si>
+  <si>
+    <t>10:19 PM</t>
+  </si>
+  <si>
+    <t>1:32 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 47 minutes</t>
+  </si>
+  <si>
+    <t>11:12 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMC)</t>
+  </si>
+  <si>
+    <t>11:35 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 23</t>
+  </si>
+  <si>
+    <t>4:08 AM</t>
+  </si>
+  <si>
+    <t>4:05 AM</t>
+  </si>
+  <si>
+    <t>6:34 AM</t>
+  </si>
+  <si>
+    <t>6:12 AM</t>
+  </si>
+  <si>
+    <t>LO7017</t>
+  </si>
+  <si>
+    <t>(SP-LIG)</t>
+  </si>
+  <si>
+    <t>8:39 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>10:21 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 26 minutes</t>
   </si>
   <si>
     <t>(HA-LYI)</t>
   </si>
   <si>
-    <t>2:16 PM</t>
-  </si>
-  <si>
-    <t>2 hours, 41 minutes</t>
-  </si>
-  <si>
-    <t>(SP-RKB)</t>
-  </si>
-  <si>
-    <t>11:39 AM</t>
-  </si>
-  <si>
-    <t>0 hours, -1 minutes</t>
-  </si>
-  <si>
-    <t>(SP-RSS)</t>
-  </si>
-  <si>
-    <t>11:57 AM</t>
+    <t>12:21 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityJet </t>
+  </si>
+  <si>
+    <t>(EI-FPI)</t>
+  </si>
+  <si>
+    <t>1:46 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXZ)</t>
+  </si>
+  <si>
+    <t>2:39 PM</t>
+  </si>
+  <si>
+    <t>4:06 PM</t>
+  </si>
+  <si>
+    <t>5:24 PM</t>
+  </si>
+  <si>
+    <t>9:01 PM</t>
+  </si>
+  <si>
+    <t>8:34 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBA)</t>
+  </si>
+  <si>
+    <t>9:46 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMB)</t>
+  </si>
+  <si>
+    <t>11:56 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 25</t>
+  </si>
+  <si>
+    <t>6:29 AM</t>
+  </si>
+  <si>
+    <t>6:36 AM</t>
+  </si>
+  <si>
+    <t>(9H-QED)</t>
+  </si>
+  <si>
+    <t>8:16 AM</t>
+  </si>
+  <si>
+    <t>12:27 PM</t>
+  </si>
+  <si>
+    <t>(SP-LRF)</t>
+  </si>
+  <si>
+    <t>1:21 PM</t>
+  </si>
+  <si>
+    <t>(EI-FPP)</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LDE)</t>
+  </si>
+  <si>
+    <t>(PH-EXU)</t>
+  </si>
+  <si>
+    <t>2:40 PM</t>
+  </si>
+  <si>
+    <t>3:02 PM</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>(GRQ)</t>
+  </si>
+  <si>
+    <t>2:53 PM</t>
+  </si>
+  <si>
+    <t>3:37 PM</t>
+  </si>
+  <si>
+    <t>4:07 PM</t>
+  </si>
+  <si>
+    <t>4:30 PM</t>
+  </si>
+  <si>
+    <t>5:02 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 37 minutes</t>
+  </si>
+  <si>
+    <t>0 hours, -32 minutes</t>
+  </si>
+  <si>
+    <t>(EI-GXN)</t>
+  </si>
+  <si>
+    <t>8:21 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKR)</t>
+  </si>
+  <si>
+    <t>10:13 PM</t>
+  </si>
+  <si>
+    <t>11:05 PM</t>
+  </si>
+  <si>
+    <t>1:11 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 51 minutes</t>
+  </si>
+  <si>
+    <t>11:31 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>8:45 AM</t>
+  </si>
+  <si>
+    <t>G280</t>
+  </si>
+  <si>
+    <t>(SP-GEC)</t>
+  </si>
+  <si>
+    <t>8:29 AM</t>
+  </si>
+  <si>
+    <t>10:12 AM</t>
+  </si>
+  <si>
+    <t>11:04 AM</t>
+  </si>
+  <si>
+    <t>11:52 AM</t>
+  </si>
+  <si>
+    <t>12:48 PM</t>
+  </si>
+  <si>
+    <t>1:53 PM</t>
+  </si>
+  <si>
+    <t>2:42 PM</t>
+  </si>
+  <si>
+    <t>E44323</t>
+  </si>
+  <si>
+    <t>Rzeszow</t>
+  </si>
+  <si>
+    <t>(RZE)</t>
+  </si>
+  <si>
+    <t>(SP-ESE)</t>
+  </si>
+  <si>
+    <t>0 hours, -42 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>6:20 AM</t>
+  </si>
+  <si>
+    <t>(D-ACKJ)</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>11:10 AM</t>
+  </si>
+  <si>
+    <t>(HA-LWQ)</t>
+  </si>
+  <si>
+    <t>(SP-RSI)</t>
+  </si>
+  <si>
+    <t>(D-ACNL)</t>
+  </si>
+  <si>
+    <t>12:41 PM</t>
   </si>
   <si>
     <t>(HA-LWS)</t>
   </si>
   <si>
-    <t>12:23 PM</t>
-  </si>
-  <si>
-    <t>(EI-FPS)</t>
-  </si>
-  <si>
-    <t>1:49 PM</t>
-  </si>
-  <si>
-    <t>2:04 PM</t>
-  </si>
-  <si>
-    <t>(PH-EXP)</t>
-  </si>
-  <si>
-    <t>2:29 PM</t>
-  </si>
-  <si>
-    <t>4:09 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 29 minutes</t>
-  </si>
-  <si>
-    <t>4:42 PM</t>
-  </si>
-  <si>
-    <t>(SP-LWA)</t>
-  </si>
-  <si>
-    <t>7:35 PM</t>
-  </si>
-  <si>
-    <t>7:36 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 1 minutes</t>
+    <t>(EI-FPG)</t>
+  </si>
+  <si>
+    <t>1:44 PM</t>
+  </si>
+  <si>
+    <t>2:07 PM</t>
+  </si>
+  <si>
+    <t>3:57 PM</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>(BER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet Story </t>
+  </si>
+  <si>
+    <t>(SP-CUD)</t>
+  </si>
+  <si>
+    <t>5:55 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 58 minutes</t>
+  </si>
+  <si>
+    <t>3:43 PM</t>
+  </si>
+  <si>
+    <t>4:27 PM</t>
+  </si>
+  <si>
+    <t>4:50 PM</t>
+  </si>
+  <si>
+    <t>5:41 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>8:52 PM</t>
+  </si>
+  <si>
+    <t>(EI-HAY)</t>
+  </si>
+  <si>
+    <t>1 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>(9H-VUA)</t>
+  </si>
+  <si>
+    <t>11:49 PM</t>
   </si>
   <si>
     <t>0 hours, 49 minutes</t>
   </si>
   <si>
-    <t>9:48 PM</t>
-  </si>
-  <si>
-    <t>(EI-HGV)</t>
-  </si>
-  <si>
-    <t>1 hours, 5 minutes</t>
-  </si>
-  <si>
-    <t>(9H-VUS)</t>
-  </si>
-  <si>
-    <t>9:29 PM</t>
-  </si>
-  <si>
-    <t>12:05 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 50 minutes</t>
-  </si>
-  <si>
-    <t>10:56 PM</t>
-  </si>
-  <si>
-    <t>11:11 PM</t>
-  </si>
-  <si>
-    <t>(SP-LIN)</t>
-  </si>
-  <si>
-    <t>11:34 PM</t>
-  </si>
-  <si>
-    <t>12:09 AM</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>11:18 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 18 minutes</t>
-  </si>
-  <si>
-    <t>1:16 PM</t>
-  </si>
-  <si>
-    <t>Diverted to SZZ</t>
-  </si>
-  <si>
-    <t>12:49 PM</t>
-  </si>
-  <si>
-    <t>1:56 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 7 minutes</t>
+    <t>(D-ACNG)</t>
+  </si>
+  <si>
+    <t>10:59 PM</t>
+  </si>
+  <si>
+    <t>12:14 AM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>8:42 AM</t>
+  </si>
+  <si>
+    <t>5Y571</t>
+  </si>
+  <si>
+    <t>Topeka</t>
+  </si>
+  <si>
+    <t>(FOE)</t>
+  </si>
+  <si>
+    <t>9:19 AM</t>
+  </si>
+  <si>
+    <t>(G-WUKU)</t>
+  </si>
+  <si>
+    <t>10:50 AM</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>(SP-ESG)</t>
   </si>
   <si>
     <t>1:18 PM</t>
   </si>
   <si>
-    <t>1:46 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 53 minutes</t>
-  </si>
-  <si>
-    <t>(EI-EFX)</t>
-  </si>
-  <si>
-    <t>(HA-LXR)</t>
+    <t>0 hours, 25 minutes</t>
+  </si>
+  <si>
+    <t>1:20 PM</t>
+  </si>
+  <si>
+    <t>1:07 PM</t>
+  </si>
+  <si>
+    <t>(EI-DWJ)</t>
+  </si>
+  <si>
+    <t>1:23 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMA)</t>
+  </si>
+  <si>
+    <t>2:14 PM</t>
+  </si>
+  <si>
+    <t>(HA-LXY)</t>
+  </si>
+  <si>
+    <t>2:25 PM</t>
+  </si>
+  <si>
+    <t>3:22 PM</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10732,32 +11053,32 @@
         <v>679</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>595</v>
+        <v>175</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="E230" t="s" s="0">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="F230" t="s" s="0">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="G230" t="s" s="0">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="H230" t="s" s="0">
-        <v>596</v>
+        <v>17</v>
       </c>
       <c r="I230" t="s" s="0">
-        <v>597</v>
+        <v>680</v>
       </c>
       <c r="J230" t="s" s="0">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K230" s="0"/>
       <c r="L230" t="s" s="0">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M230" s="0"/>
     </row>
@@ -10769,32 +11090,32 @@
         <v>679</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="E231" t="s" s="0">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F231" t="s" s="0">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G231" t="s" s="0">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H231" t="s" s="0">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I231" t="s" s="0">
-        <v>142</v>
+        <v>682</v>
       </c>
       <c r="J231" t="s" s="0">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K231" s="0"/>
       <c r="L231" t="s" s="0">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="M231" s="0"/>
     </row>
@@ -10806,32 +11127,32 @@
         <v>679</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="E232" t="s" s="0">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="F232" t="s" s="0">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="G232" t="s" s="0">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="H232" t="s" s="0">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I232" t="s" s="0">
-        <v>51</v>
+        <v>684</v>
       </c>
       <c r="J232" t="s" s="0">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="K232" s="0"/>
       <c r="L232" t="s" s="0">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="M232" s="0"/>
     </row>
@@ -10843,32 +11164,32 @@
         <v>679</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="E233" t="s" s="0">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="F233" t="s" s="0">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="G233" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H233" t="s" s="0">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="I233" t="s" s="0">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J233" t="s" s="0">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K233" s="0"/>
       <c r="L233" t="s" s="0">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M233" s="0"/>
     </row>
@@ -10880,32 +11201,32 @@
         <v>679</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="E234" t="s" s="0">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="F234" t="s" s="0">
-        <v>325</v>
+        <v>87</v>
       </c>
       <c r="G234" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H234" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I234" t="s" s="0">
-        <v>686</v>
+        <v>262</v>
       </c>
       <c r="J234" t="s" s="0">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K234" s="0"/>
       <c r="L234" t="s" s="0">
-        <v>688</v>
+        <v>518</v>
       </c>
       <c r="M234" s="0"/>
     </row>
@@ -10917,7 +11238,7 @@
         <v>679</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>491</v>
+        <v>198</v>
       </c>
       <c r="D235" t="s" s="0">
         <v>117</v>
@@ -10935,14 +11256,14 @@
         <v>17</v>
       </c>
       <c r="I235" t="s" s="0">
-        <v>689</v>
+        <v>51</v>
       </c>
       <c r="J235" t="s" s="0">
         <v>690</v>
       </c>
       <c r="K235" s="0"/>
       <c r="L235" t="s" s="0">
-        <v>53</v>
+        <v>691</v>
       </c>
       <c r="M235" s="0"/>
     </row>
@@ -10954,32 +11275,32 @@
         <v>679</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="E236" t="s" s="0">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F236" t="s" s="0">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G236" t="s" s="0">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H236" t="s" s="0">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I236" t="s" s="0">
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="J236" t="s" s="0">
-        <v>173</v>
+        <v>692</v>
       </c>
       <c r="K236" s="0"/>
       <c r="L236" t="s" s="0">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M236" s="0"/>
     </row>
@@ -10991,32 +11312,32 @@
         <v>679</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>495</v>
+        <v>22</v>
       </c>
       <c r="E237" t="s" s="0">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F237" t="s" s="0">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="G237" t="s" s="0">
         <v>25</v>
       </c>
       <c r="H237" t="s" s="0">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="I237" t="s" s="0">
-        <v>691</v>
+        <v>27</v>
       </c>
       <c r="J237" t="s" s="0">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K237" s="0"/>
       <c r="L237" t="s" s="0">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="M237" s="0"/>
     </row>
@@ -11028,25 +11349,25 @@
         <v>679</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="E238" t="s" s="0">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="F238" t="s" s="0">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="G238" t="s" s="0">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="H238" t="s" s="0">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I238" t="s" s="0">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="J238" t="s" s="0">
         <v>694</v>
@@ -11065,32 +11386,32 @@
         <v>679</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>82</v>
+        <v>695</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E239" t="s" s="0">
-        <v>77</v>
+        <v>696</v>
       </c>
       <c r="F239" t="s" s="0">
-        <v>78</v>
+        <v>697</v>
       </c>
       <c r="G239" t="s" s="0">
-        <v>79</v>
+        <v>698</v>
       </c>
       <c r="H239" t="s" s="0">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="I239" t="s" s="0">
-        <v>327</v>
+        <v>700</v>
       </c>
       <c r="J239" t="s" s="0">
-        <v>695</v>
+        <v>619</v>
       </c>
       <c r="K239" s="0"/>
       <c r="L239" t="s" s="0">
-        <v>61</v>
+        <v>688</v>
       </c>
       <c r="M239" s="0"/>
     </row>
@@ -11102,32 +11423,32 @@
         <v>679</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="E240" t="s" s="0">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="F240" t="s" s="0">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="G240" t="s" s="0">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="H240" t="s" s="0">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I240" t="s" s="0">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="J240" t="s" s="0">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K240" s="0"/>
       <c r="L240" t="s" s="0">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="M240" s="0"/>
     </row>
@@ -11139,32 +11460,32 @@
         <v>679</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>501</v>
+        <v>122</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>342</v>
+        <v>141</v>
       </c>
       <c r="E241" t="s" s="0">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="F241" t="s" s="0">
-        <v>344</v>
+        <v>87</v>
       </c>
       <c r="G241" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H241" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I241" t="s" s="0">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="J241" t="s" s="0">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K241" s="0"/>
       <c r="L241" t="s" s="0">
-        <v>699</v>
+        <v>481</v>
       </c>
       <c r="M241" s="0"/>
     </row>
@@ -11176,32 +11497,32 @@
         <v>679</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E242" t="s" s="0">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="F242" t="s" s="0">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="G242" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H242" t="s" s="0">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="I242" t="s" s="0">
-        <v>453</v>
+        <v>686</v>
       </c>
       <c r="J242" t="s" s="0">
-        <v>194</v>
+        <v>704</v>
       </c>
       <c r="K242" s="0"/>
       <c r="L242" t="s" s="0">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="M242" s="0"/>
     </row>
@@ -11213,16 +11534,16 @@
         <v>679</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>503</v>
+        <v>226</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>352</v>
+        <v>13</v>
       </c>
       <c r="E243" t="s" s="0">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s" s="0">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s" s="0">
         <v>16</v>
@@ -11231,14 +11552,14 @@
         <v>17</v>
       </c>
       <c r="I243" t="s" s="0">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="J243" t="s" s="0">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K243" s="0"/>
       <c r="L243" t="s" s="0">
-        <v>121</v>
+        <v>706</v>
       </c>
       <c r="M243" s="0"/>
     </row>
@@ -11250,32 +11571,32 @@
         <v>679</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E244" t="s" s="0">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="F244" t="s" s="0">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H244" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I244" t="s" s="0">
-        <v>686</v>
+        <v>219</v>
       </c>
       <c r="J244" t="s" s="0">
-        <v>504</v>
+        <v>707</v>
       </c>
       <c r="K244" s="0"/>
       <c r="L244" t="s" s="0">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="M244" s="0"/>
     </row>
@@ -11287,10 +11608,10 @@
         <v>679</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E245" t="s" s="0">
         <v>77</v>
@@ -11302,17 +11623,17 @@
         <v>79</v>
       </c>
       <c r="H245" t="s" s="0">
-        <v>17</v>
+        <v>584</v>
       </c>
       <c r="I245" t="s" s="0">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="J245" t="s" s="0">
-        <v>322</v>
+        <v>709</v>
       </c>
       <c r="K245" s="0"/>
       <c r="L245" t="s" s="0">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="M245" s="0"/>
     </row>
@@ -11321,35 +11642,35 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>645</v>
+        <v>238</v>
       </c>
       <c r="E246" t="s" s="0">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="F246" t="s" s="0">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="G246" t="s" s="0">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="H246" t="s" s="0">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="I246" t="s" s="0">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="J246" t="s" s="0">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="K246" s="0"/>
       <c r="L246" t="s" s="0">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="M246" s="0"/>
     </row>
@@ -11358,35 +11679,35 @@
         <v>246.0</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>508</v>
+        <v>713</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="E247" t="s" s="0">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="F247" t="s" s="0">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="G247" t="s" s="0">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H247" t="s" s="0">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="I247" t="s" s="0">
-        <v>51</v>
+        <v>623</v>
       </c>
       <c r="J247" t="s" s="0">
-        <v>547</v>
+        <v>714</v>
       </c>
       <c r="K247" s="0"/>
       <c r="L247" t="s" s="0">
-        <v>704</v>
+        <v>270</v>
       </c>
       <c r="M247" s="0"/>
     </row>
@@ -11395,35 +11716,35 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>508</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>509</v>
+        <v>715</v>
       </c>
       <c r="E248" t="s" s="0">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="F248" t="s" s="0">
-        <v>511</v>
+        <v>78</v>
       </c>
       <c r="G248" t="s" s="0">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s" s="0">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="I248" t="s" s="0">
-        <v>333</v>
+        <v>716</v>
       </c>
       <c r="J248" t="s" s="0">
-        <v>468</v>
+        <v>717</v>
       </c>
       <c r="K248" s="0"/>
       <c r="L248" t="s" s="0">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="M248" s="0"/>
     </row>
@@ -11432,35 +11753,35 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>515</v>
+        <v>260</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="E249" t="s" s="0">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="F249" t="s" s="0">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="G249" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H249" t="s" s="0">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="I249" t="s" s="0">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="J249" t="s" s="0">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="K249" s="0"/>
       <c r="L249" t="s" s="0">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="M249" s="0"/>
     </row>
@@ -11469,35 +11790,35 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="E250" t="s" s="0">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="F250" t="s" s="0">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="G250" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H250" t="s" s="0">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="I250" t="s" s="0">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="J250" t="s" s="0">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="K250" s="0"/>
       <c r="L250" t="s" s="0">
-        <v>708</v>
+        <v>481</v>
       </c>
       <c r="M250" s="0"/>
     </row>
@@ -11506,35 +11827,35 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="E251" t="s" s="0">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="F251" t="s" s="0">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="G251" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H251" t="s" s="0">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="I251" t="s" s="0">
-        <v>709</v>
+        <v>51</v>
       </c>
       <c r="J251" t="s" s="0">
-        <v>710</v>
+        <v>490</v>
       </c>
       <c r="K251" s="0"/>
       <c r="L251" t="s" s="0">
-        <v>329</v>
+        <v>720</v>
       </c>
       <c r="M251" s="0"/>
     </row>
@@ -11543,35 +11864,35 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="E252" t="s" s="0">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F252" t="s" s="0">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G252" t="s" s="0">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H252" t="s" s="0">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I252" t="s" s="0">
-        <v>635</v>
+        <v>421</v>
       </c>
       <c r="J252" t="s" s="0">
-        <v>711</v>
+        <v>28</v>
       </c>
       <c r="K252" s="0"/>
       <c r="L252" t="s" s="0">
-        <v>712</v>
+        <v>53</v>
       </c>
       <c r="M252" s="0"/>
     </row>
@@ -11580,19 +11901,19 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="E253" t="s" s="0">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="F253" t="s" s="0">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="G253" t="s" s="0">
         <v>16</v>
@@ -11601,14 +11922,14 @@
         <v>17</v>
       </c>
       <c r="I253" t="s" s="0">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="J253" t="s" s="0">
-        <v>713</v>
+        <v>488</v>
       </c>
       <c r="K253" s="0"/>
       <c r="L253" t="s" s="0">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="M253" s="0"/>
     </row>
@@ -11617,35 +11938,35 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="E254" t="s" s="0">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="F254" t="s" s="0">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="G254" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H254" t="s" s="0">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="I254" t="s" s="0">
-        <v>45</v>
+        <v>721</v>
       </c>
       <c r="J254" t="s" s="0">
-        <v>714</v>
+        <v>443</v>
       </c>
       <c r="K254" s="0"/>
       <c r="L254" t="s" s="0">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="M254" s="0"/>
     </row>
@@ -11654,35 +11975,35 @@
         <v>254.0</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="E255" t="s" s="0">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s" s="0">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s" s="0">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H255" t="s" s="0">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="I255" t="s" s="0">
-        <v>715</v>
+        <v>527</v>
       </c>
       <c r="J255" t="s" s="0">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="K255" s="0"/>
       <c r="L255" t="s" s="0">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="M255" s="0"/>
     </row>
@@ -11691,35 +12012,35 @@
         <v>255.0</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>523</v>
+        <v>293</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E256" t="s" s="0">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="F256" t="s" s="0">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G256" t="s" s="0">
-        <v>16</v>
+        <v>723</v>
       </c>
       <c r="H256" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I256" t="s" s="0">
-        <v>686</v>
+        <v>724</v>
       </c>
       <c r="J256" t="s" s="0">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="K256" s="0"/>
       <c r="L256" t="s" s="0">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M256" s="0"/>
     </row>
@@ -11728,35 +12049,35 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D257" t="s" s="0">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E257" t="s" s="0">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F257" t="s" s="0">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="G257" t="s" s="0">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="H257" t="s" s="0">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I257" t="s" s="0">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="J257" t="s" s="0">
-        <v>719</v>
+        <v>293</v>
       </c>
       <c r="K257" s="0"/>
       <c r="L257" t="s" s="0">
-        <v>720</v>
+        <v>109</v>
       </c>
       <c r="M257" s="0"/>
     </row>
@@ -11765,35 +12086,35 @@
         <v>257.0</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D258" t="s" s="0">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="E258" t="s" s="0">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="F258" t="s" s="0">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="G258" t="s" s="0">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="H258" t="s" s="0">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="I258" t="s" s="0">
-        <v>219</v>
+        <v>726</v>
       </c>
       <c r="J258" t="s" s="0">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="K258" s="0"/>
       <c r="L258" t="s" s="0">
-        <v>647</v>
+        <v>61</v>
       </c>
       <c r="M258" s="0"/>
     </row>
@@ -11802,34 +12123,36 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>660</v>
+        <v>310</v>
       </c>
       <c r="D259" t="s" s="0">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="E259" t="s" s="0">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="F259" t="s" s="0">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="G259" t="s" s="0">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="H259" t="s" s="0">
-        <v>485</v>
+        <v>17</v>
       </c>
       <c r="I259" t="s" s="0">
-        <v>486</v>
+        <v>51</v>
       </c>
       <c r="J259" t="s" s="0">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="K259" s="0"/>
-      <c r="L259" s="0"/>
+      <c r="L259" t="s" s="0">
+        <v>447</v>
+      </c>
       <c r="M259" s="0"/>
     </row>
     <row r="260">
@@ -11837,35 +12160,35 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="D260" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E260" t="s" s="0">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F260" t="s" s="0">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G260" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H260" t="s" s="0">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="I260" t="s" s="0">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="J260" t="s" s="0">
-        <v>408</v>
+        <v>728</v>
       </c>
       <c r="K260" s="0"/>
       <c r="L260" t="s" s="0">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="M260" s="0"/>
     </row>
@@ -11874,35 +12197,35 @@
         <v>260.0</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>723</v>
+        <v>316</v>
       </c>
       <c r="D261" t="s" s="0">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="E261" t="s" s="0">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="F261" t="s" s="0">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="G261" t="s" s="0">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H261" t="s" s="0">
         <v>17</v>
       </c>
       <c r="I261" t="s" s="0">
-        <v>59</v>
+        <v>686</v>
       </c>
       <c r="J261" t="s" s="0">
-        <v>724</v>
+        <v>611</v>
       </c>
       <c r="K261" s="0"/>
       <c r="L261" t="s" s="0">
-        <v>725</v>
+        <v>74</v>
       </c>
       <c r="M261" s="0"/>
     </row>
@@ -11911,35 +12234,35 @@
         <v>261.0</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>726</v>
+        <v>322</v>
       </c>
       <c r="D262" t="s" s="0">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="E262" t="s" s="0">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="F262" t="s" s="0">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="G262" t="s" s="0">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H262" t="s" s="0">
         <v>17</v>
       </c>
       <c r="I262" t="s" s="0">
-        <v>333</v>
+        <v>680</v>
       </c>
       <c r="J262" t="s" s="0">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K262" s="0"/>
       <c r="L262" t="s" s="0">
-        <v>632</v>
+        <v>329</v>
       </c>
       <c r="M262" s="0"/>
     </row>
@@ -11948,35 +12271,35 @@
         <v>262.0</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="E263" t="s" s="0">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F263" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G263" t="s" s="0">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="H263" t="s" s="0">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I263" t="s" s="0">
-        <v>686</v>
+        <v>274</v>
       </c>
       <c r="J263" t="s" s="0">
-        <v>664</v>
+        <v>422</v>
       </c>
       <c r="K263" s="0"/>
       <c r="L263" t="s" s="0">
-        <v>728</v>
+        <v>315</v>
       </c>
       <c r="M263" s="0"/>
     </row>
@@ -11985,19 +12308,19 @@
         <v>263.0</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="E264" t="s" s="0">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="F264" t="s" s="0">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="G264" t="s" s="0">
         <v>16</v>
@@ -12006,14 +12329,14 @@
         <v>17</v>
       </c>
       <c r="I264" t="s" s="0">
-        <v>729</v>
+        <v>51</v>
       </c>
       <c r="J264" t="s" s="0">
-        <v>500</v>
+        <v>730</v>
       </c>
       <c r="K264" s="0"/>
       <c r="L264" t="s" s="0">
-        <v>728</v>
+        <v>292</v>
       </c>
       <c r="M264" s="0"/>
     </row>
@@ -12022,37 +12345,2701 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>309</v>
+        <v>514</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>538</v>
+        <v>55</v>
       </c>
       <c r="E265" t="s" s="0">
-        <v>539</v>
+        <v>331</v>
       </c>
       <c r="F265" t="s" s="0">
-        <v>540</v>
+        <v>332</v>
       </c>
       <c r="G265" t="s" s="0">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H265" t="s" s="0">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I265" t="s" s="0">
-        <v>730</v>
+        <v>333</v>
       </c>
       <c r="J265" t="s" s="0">
-        <v>666</v>
+        <v>731</v>
       </c>
       <c r="K265" s="0"/>
       <c r="L265" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M265" s="0"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E266" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F266" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G266" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H266" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I266" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J266" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K266" s="0"/>
+      <c r="L266" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M266" s="0"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E267" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F267" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G267" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H267" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I267" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="J267" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="K267" s="0"/>
+      <c r="L267" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M267" s="0"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E268" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F268" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G268" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H268" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I268" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="J268" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K268" s="0"/>
+      <c r="L268" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M268" s="0"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="0">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E269" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F269" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G269" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H269" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I269" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J269" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="K269" s="0"/>
+      <c r="L269" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M269" s="0"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E270" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G270" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H270" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="I270" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="J270" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="K270" s="0"/>
+      <c r="L270" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="M270" s="0"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E271" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F271" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G271" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H271" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I271" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J271" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="K271" s="0"/>
+      <c r="L271" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M271" s="0"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E272" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F272" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G272" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H272" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I272" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="J272" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="K272" s="0"/>
+      <c r="L272" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M272" s="0"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="0">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E273" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F273" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G273" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H273" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I273" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="J273" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="K273" s="0"/>
+      <c r="L273" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M273" s="0"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E274" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F274" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G274" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H274" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I274" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="J274" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="K274" s="0"/>
+      <c r="L274" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M274" s="0"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E275" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F275" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="G275" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H275" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="I275" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="J275" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="K275" s="0"/>
+      <c r="L275" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M275" s="0"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E276" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F276" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G276" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H276" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I276" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J276" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="K276" s="0"/>
+      <c r="L276" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M276" s="0"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n" s="0">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E277" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F277" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G277" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H277" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I277" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="J277" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="K277" s="0"/>
+      <c r="L277" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="M277" s="0"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E278" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F278" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G278" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H278" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I278" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="J278" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K278" s="0"/>
+      <c r="L278" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M278" s="0"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E279" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F279" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G279" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H279" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I279" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="J279" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="K279" s="0"/>
+      <c r="L279" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M279" s="0"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E280" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F280" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G280" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H280" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I280" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="J280" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="K280" s="0"/>
+      <c r="L280" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M280" s="0"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E281" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="F281" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="G281" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="H281" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I281" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J281" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="K281" s="0"/>
+      <c r="L281" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M281" s="0"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E282" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F282" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G282" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H282" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I282" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J282" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="K282" s="0"/>
+      <c r="L282" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M282" s="0"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E283" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="F283" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="G283" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H283" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I283" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J283" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K283" s="0"/>
+      <c r="L283" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M283" s="0"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E284" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F284" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G284" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H284" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I284" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J284" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="K284" s="0"/>
+      <c r="L284" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="M284" s="0"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E285" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F285" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G285" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H285" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I285" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J285" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="K285" s="0"/>
+      <c r="L285" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="M285" s="0"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n" s="0">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E286" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F286" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H286" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I286" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="J286" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="K286" s="0"/>
+      <c r="L286" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="M286" s="0"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E287" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F287" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G287" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H287" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I287" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="J287" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K287" s="0"/>
+      <c r="L287" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="M287" s="0"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E288" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F288" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G288" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H288" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I288" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="J288" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="K288" s="0"/>
+      <c r="L288" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M288" s="0"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E289" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F289" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G289" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H289" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I289" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="J289" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="K289" s="0"/>
+      <c r="L289" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M289" s="0"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E290" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F290" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G290" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H290" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I290" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J290" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="K290" s="0"/>
+      <c r="L290" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="M290" s="0"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E291" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F291" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G291" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H291" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I291" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="J291" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="K291" s="0"/>
+      <c r="L291" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M291" s="0"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E292" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F292" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G292" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H292" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I292" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="J292" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="K292" s="0"/>
+      <c r="L292" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="M292" s="0"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E293" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F293" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="G293" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H293" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="I293" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="J293" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="K293" s="0"/>
+      <c r="L293" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M293" s="0"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E294" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F294" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G294" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H294" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I294" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="J294" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="K294" s="0"/>
+      <c r="L294" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="M294" s="0"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E295" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F295" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G295" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="H295" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I295" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="J295" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="K295" s="0"/>
+      <c r="L295" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M295" s="0"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E296" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F296" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G296" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H296" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I296" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="J296" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="K296" s="0"/>
+      <c r="L296" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M296" s="0"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E297" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F297" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G297" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H297" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I297" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="J297" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="K297" s="0"/>
+      <c r="L297" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="M297" s="0"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E298" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F298" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G298" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H298" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I298" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="J298" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="K298" s="0"/>
+      <c r="L298" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M298" s="0"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="E299" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="F299" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="G299" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H299" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I299" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="J299" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K299" s="0"/>
+      <c r="L299" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="M299" s="0"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E300" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F300" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G300" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H300" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I300" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="J300" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="K300" s="0"/>
+      <c r="L300" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M300" s="0"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E301" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F301" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G301" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H301" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I301" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="J301" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="K301" s="0"/>
+      <c r="L301" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M301" s="0"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="E302" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F302" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G302" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H302" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I302" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J302" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="K302" s="0"/>
+      <c r="L302" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M302" s="0"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E303" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F303" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G303" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H303" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I303" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="J303" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="K303" s="0"/>
+      <c r="L303" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M303" s="0"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E304" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F304" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H304" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I304" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J304" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="K304" s="0"/>
+      <c r="L304" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M304" s="0"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E305" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F305" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G305" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H305" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I305" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J305" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="K305" s="0"/>
+      <c r="L305" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M305" s="0"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E306" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F306" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G306" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H306" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I306" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="J306" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="K306" s="0"/>
+      <c r="L306" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="M306" s="0"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E307" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F307" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G307" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H307" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I307" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="J307" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K307" s="0"/>
+      <c r="L307" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M307" s="0"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E308" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F308" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G308" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H308" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I308" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="J308" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K308" s="0"/>
+      <c r="L308" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M308" s="0"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E309" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F309" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G309" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H309" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I309" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J309" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="K309" s="0"/>
+      <c r="L309" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="M265" s="0"/>
+      <c r="M309" s="0"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E310" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F310" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G310" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H310" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I310" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="J310" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K310" s="0"/>
+      <c r="L310" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M310" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E311" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="F311" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="G311" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H311" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I311" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J311" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="K311" s="0"/>
+      <c r="L311" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M311" s="0"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E312" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="F312" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="G312" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="H312" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="I312" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="J312" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="K312" s="0"/>
+      <c r="L312" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="M312" s="0"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E313" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F313" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G313" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H313" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I313" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J313" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="K313" s="0"/>
+      <c r="L313" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M313" s="0"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E314" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F314" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G314" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H314" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I314" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J314" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="K314" s="0"/>
+      <c r="L314" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M314" s="0"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E315" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F315" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G315" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H315" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I315" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J315" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K315" s="0"/>
+      <c r="L315" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M315" s="0"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E316" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F316" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G316" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H316" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I316" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J316" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="K316" s="0"/>
+      <c r="L316" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="M316" s="0"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="E317" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="F317" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="G317" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H317" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I317" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="J317" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K317" s="0"/>
+      <c r="L317" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="M317" s="0"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E318" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F318" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G318" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H318" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I318" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J318" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="K318" s="0"/>
+      <c r="L318" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M318" s="0"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E319" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F319" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G319" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H319" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I319" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J319" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="K319" s="0"/>
+      <c r="L319" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="M319" s="0"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E320" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F320" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G320" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H320" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I320" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="J320" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K320" s="0"/>
+      <c r="L320" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="M320" s="0"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E321" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F321" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G321" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="H321" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I321" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="J321" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="K321" s="0"/>
+      <c r="L321" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M321" s="0"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E322" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F322" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G322" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H322" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I322" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J322" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K322" s="0"/>
+      <c r="L322" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="M322" s="0"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E323" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F323" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G323" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H323" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I323" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="J323" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="K323" s="0"/>
+      <c r="L323" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="M323" s="0"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E324" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F324" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G324" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H324" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="I324" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="J324" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="K324" s="0"/>
+      <c r="L324" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="M324" s="0"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E325" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F325" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G325" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H325" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I325" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J325" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="K325" s="0"/>
+      <c r="L325" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M325" s="0"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="E326" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="F326" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="G326" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="H326" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="I326" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="J326" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="K326" s="0"/>
+      <c r="L326" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="M326" s="0"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E327" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F327" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G327" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H327" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I327" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="J327" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="K327" s="0"/>
+      <c r="L327" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M327" s="0"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E328" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F328" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G328" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H328" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I328" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="J328" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K328" s="0"/>
+      <c r="L328" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M328" s="0"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E329" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F329" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G329" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H329" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I329" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J329" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="K329" s="0"/>
+      <c r="L329" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M329" s="0"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E330" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F330" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G330" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H330" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I330" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="J330" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="K330" s="0"/>
+      <c r="L330" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="M330" s="0"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E331" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F331" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G331" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H331" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I331" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="J331" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="K331" s="0"/>
+      <c r="L331" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="M331" s="0"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E332" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F332" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G332" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H332" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I332" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J332" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="K332" s="0"/>
+      <c r="L332" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M332" s="0"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E333" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="F333" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G333" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H333" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I333" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="J333" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="K333" s="0"/>
+      <c r="L333" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M333" s="0"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E334" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F334" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G334" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H334" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="I334" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="J334" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="K334" s="0"/>
+      <c r="L334" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="M334" s="0"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="E335" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="F335" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="G335" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H335" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I335" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="J335" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="K335" s="0"/>
+      <c r="L335" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M335" s="0"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E336" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F336" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G336" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H336" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I336" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="J336" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K336" s="0"/>
+      <c r="L336" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="M336" s="0"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E337" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F337" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G337" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H337" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I337" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J337" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="K337" s="0"/>
+      <c r="L337" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M337" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/POZ_Arrivals.xlsx
+++ b/DataBase/POZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="886">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2526,6 +2526,150 @@
   </si>
   <si>
     <t>3:22 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>1:29 PM</t>
+  </si>
+  <si>
+    <t>2:29 PM</t>
+  </si>
+  <si>
+    <t>4:11 PM</t>
+  </si>
+  <si>
+    <t>(SP-LVB)</t>
+  </si>
+  <si>
+    <t>5:48 PM</t>
+  </si>
+  <si>
+    <t>7:08 PM</t>
+  </si>
+  <si>
+    <t>8:07 PM</t>
+  </si>
+  <si>
+    <t>9:34 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNV)</t>
+  </si>
+  <si>
+    <t>10:50 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIR)</t>
+  </si>
+  <si>
+    <t>12:08 AM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>UA2575</t>
+  </si>
+  <si>
+    <t>Killeen</t>
+  </si>
+  <si>
+    <t>(GRK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Airlines </t>
+  </si>
+  <si>
+    <t>B77W</t>
+  </si>
+  <si>
+    <t>(N2142U)</t>
+  </si>
+  <si>
+    <t>12:41 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -49 minutes</t>
+  </si>
+  <si>
+    <t>4:21 AM</t>
+  </si>
+  <si>
+    <t>3:43 AM</t>
+  </si>
+  <si>
+    <t>6:15 AM</t>
+  </si>
+  <si>
+    <t>6:04 AM</t>
+  </si>
+  <si>
+    <t>(D-ACNU)</t>
+  </si>
+  <si>
+    <t>10:17 AM</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>(SP-LND)</t>
+  </si>
+  <si>
+    <t>11:28 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYZ)</t>
+  </si>
+  <si>
+    <t>11:33 AM</t>
+  </si>
+  <si>
+    <t>12:16 PM</t>
+  </si>
+  <si>
+    <t>(EI-FPS)</t>
+  </si>
+  <si>
+    <t>1:56 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Warmia Mazury Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNF)</t>
+  </si>
+  <si>
+    <t>2:31 PM</t>
+  </si>
+  <si>
+    <t>3:25 PM</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>(BWE)</t>
+  </si>
+  <si>
+    <t>4:39 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 27 minutes</t>
+  </si>
+  <si>
+    <t>5:31 PM</t>
+  </si>
+  <si>
+    <t>5:44 PM</t>
+  </si>
+  <si>
+    <t>(SP-LNK)</t>
+  </si>
+  <si>
+    <t>5:59 PM</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M372"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15041,6 +15185,1301 @@
       </c>
       <c r="M337" s="0"/>
     </row>
+    <row r="338">
+      <c r="A338" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="E338" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="F338" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G338" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H338" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I338" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J338" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="K338" s="0"/>
+      <c r="L338" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M338" s="0"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E339" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F339" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G339" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H339" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I339" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J339" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K339" s="0"/>
+      <c r="L339" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M339" s="0"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E340" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="F340" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="G340" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H340" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I340" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J340" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="K340" s="0"/>
+      <c r="L340" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="M340" s="0"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E341" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F341" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G341" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="H341" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I341" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="J341" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K341" s="0"/>
+      <c r="L341" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M341" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="0">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E342" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F342" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G342" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H342" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I342" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="J342" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="K342" s="0"/>
+      <c r="L342" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M342" s="0"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E343" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F343" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G343" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H343" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I343" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="J343" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K343" s="0"/>
+      <c r="L343" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M343" s="0"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E344" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F344" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G344" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H344" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I344" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J344" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="K344" s="0"/>
+      <c r="L344" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M344" s="0"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E345" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F345" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G345" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H345" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I345" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="J345" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K345" s="0"/>
+      <c r="L345" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M345" s="0"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E346" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F346" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G346" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H346" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I346" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J346" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="K346" s="0"/>
+      <c r="L346" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="M346" s="0"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E347" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F347" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="G347" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H347" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I347" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J347" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="K347" s="0"/>
+      <c r="L347" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M347" s="0"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E348" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F348" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="G348" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H348" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I348" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J348" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="K348" s="0"/>
+      <c r="L348" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M348" s="0"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E349" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F349" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G349" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H349" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I349" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J349" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K349" s="0"/>
+      <c r="L349" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M349" s="0"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E350" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F350" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G350" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H350" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I350" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J350" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="K350" s="0"/>
+      <c r="L350" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="M350" s="0"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E351" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F351" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G351" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H351" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I351" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J351" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="K351" s="0"/>
+      <c r="L351" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M351" s="0"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E352" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F352" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G352" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H352" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I352" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="J352" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K352" s="0"/>
+      <c r="L352" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="M352" s="0"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="0">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E353" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F353" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G353" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H353" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I353" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="J353" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K353" s="0"/>
+      <c r="L353" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="M353" s="0"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="E354" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="F354" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="G354" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="H354" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="I354" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="J354" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="K354" s="0"/>
+      <c r="L354" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="M354" s="0"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="E355" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F355" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G355" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H355" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I355" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="J355" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="K355" s="0"/>
+      <c r="L355" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="M355" s="0"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E356" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F356" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G356" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="H356" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I356" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="J356" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="K356" s="0"/>
+      <c r="L356" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M356" s="0"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E357" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F357" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G357" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H357" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I357" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="J357" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="K357" s="0"/>
+      <c r="L357" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M357" s="0"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E358" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="F358" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G358" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H358" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I358" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J358" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="K358" s="0"/>
+      <c r="L358" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M358" s="0"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E359" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F359" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G359" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H359" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I359" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J359" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="K359" s="0"/>
+      <c r="L359" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="M359" s="0"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E360" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F360" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G360" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H360" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I360" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="J360" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="K360" s="0"/>
+      <c r="L360" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="M360" s="0"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="E361" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F361" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G361" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H361" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I361" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J361" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="K361" s="0"/>
+      <c r="L361" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M361" s="0"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E362" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F362" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G362" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H362" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I362" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="J362" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="K362" s="0"/>
+      <c r="L362" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M362" s="0"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E363" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F363" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G363" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H363" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I363" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="J363" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="K363" s="0"/>
+      <c r="L363" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M363" s="0"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E364" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="F364" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G364" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="H364" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I364" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="J364" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="K364" s="0"/>
+      <c r="L364" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M364" s="0"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="0">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F365" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G365" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="H365" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I365" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="J365" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="K365" s="0"/>
+      <c r="L365" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="M365" s="0"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="0">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E366" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F366" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G366" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H366" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I366" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="J366" t="s" s="0">
+        <v>876</v>
+      </c>
+      <c r="K366" s="0"/>
+      <c r="L366" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="M366" s="0"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E367" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="F367" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="G367" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="H367" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="I367" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J367" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="K367" s="0"/>
+      <c r="L367" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="M367" s="0"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E368" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F368" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G368" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H368" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I368" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J368" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="K368" s="0"/>
+      <c r="L368" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="M368" s="0"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="0">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E369" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F369" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G369" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H369" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I369" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J369" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="K369" s="0"/>
+      <c r="L369" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="M369" s="0"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E370" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="F370" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G370" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H370" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I370" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="J370" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K370" s="0"/>
+      <c r="L370" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M370" s="0"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E371" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F371" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G371" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H371" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I371" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="J371" t="s" s="0">
+        <v>883</v>
+      </c>
+      <c r="K371" s="0"/>
+      <c r="L371" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M371" s="0"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E372" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F372" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G372" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H372" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="I372" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="J372" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="K372" s="0"/>
+      <c r="L372" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="M372" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
